--- a/biology/Zoologie/Caponiidae/Caponiidae.xlsx
+++ b/biology/Zoologie/Caponiidae/Caponiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Caponiidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Caponiidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Afrique, en Asie du Sud-Est et en Iran[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Afrique, en Asie du Sud-Est et en Iran.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce sont des araignées écribellates haplogynes qui ont la particularité de n'avoir que deux yeux, certaines quatre, six, ou même 8 comme dans les autres familles.
 Elles ont un céphalothorax orangé et un abdomen gris clair. Les espèces avec deux yeux les portent dans le milieu antérieur de leur carapace.
-Selon les genres, elles ont[2], :
+Selon les genres, elles ont, :
 8 yeux : Calponia, Caponia
 6 yeux : Iraponia, Nasutonops
 4 ou 6 yeux : Caponina
@@ -580,9 +596,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Néogène[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Néogène.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 17/09/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 17/09/2023) :
 Aamunops Galán-Sánchez &amp; Álvarez-Padilla, 2022
 Calponia Platnick, 1993
 Caponia Simon, 1887
@@ -662,10 +682,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Simon en 1890.
-Cette famille rassemble 142 espèces dans 21 genres[1].
+Cette famille rassemble 142 espèces dans 21 genres.
 </t>
         </is>
       </c>
@@ -694,7 +716,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Simon, 1890 : « Études arachnologiques. 22e Mémoire. XXXIV. Étude sur les arachnides de l'Yemen. » Annales de la Société Entomologique de France, sér. 6, vol. 10, p. 77-124 (texte intégral).</t>
         </is>
